--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198590.33</v>
+        <v>979124.78</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66196.78</v>
+        <v>163187.46</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78377.74000000001</v>
+        <v>80335.84</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71141.69</v>
+        <v>65711.62</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49070.9</v>
+        <v>49372.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>573331.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>194681</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15692.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,88 +436,117 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>979124.78</v>
+        <v>80580.89999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77443.96000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163187.46</v>
+        <v>570016.27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>571463.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80335.84</v>
+        <v>192468.92</v>
+      </c>
+      <c r="C4" t="n">
+        <v>203026.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65711.62</v>
+        <v>14768.71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15099.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49372.57</v>
+        <v>65488.49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69528.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>573331.6</v>
+        <v>50159.64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51312.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>194681</v>
+        <v>162247.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>164645.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15692.15</v>
+        <v>973482.9300000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>987874.3199999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,105 +443,81 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80580.89999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>77443.96000000001</v>
+        <v>987874.3199999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570016.27</v>
-      </c>
-      <c r="C3" t="n">
-        <v>571463.61</v>
+        <v>164645.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192468.92</v>
-      </c>
-      <c r="C4" t="n">
-        <v>203026.25</v>
+        <v>77443.96000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14768.71</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15099.4</v>
+        <v>571463.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65488.49</v>
-      </c>
-      <c r="C6" t="n">
-        <v>69528.98</v>
+        <v>203026.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50159.64</v>
-      </c>
-      <c r="C7" t="n">
-        <v>51312.12</v>
+        <v>15099.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162247.15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>164645.72</v>
+        <v>69528.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>973482.9300000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>987874.3199999999</v>
+        <v>51312.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,108 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>987874.3199999999</v>
+        <v>77443.96000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80682.92999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164645.72</v>
-      </c>
+        <v>571463.61</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77443.96000000001</v>
-      </c>
+        <v>203026.25</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>571463.61</v>
-      </c>
+        <v>15099.4</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203026.25</v>
+        <v>69528.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70357.17999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15099.4</v>
+        <v>51312.12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47973.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69528.98</v>
+        <v>164645.72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>66337.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51312.12</v>
+        <v>987874.3199999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>199013.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>80682.92999999999</v>
       </c>
+      <c r="D2" t="n">
+        <v>80803.56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +476,9 @@
         <v>571463.61</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>573900.4399999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -479,6 +490,9 @@
         <v>203026.25</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>192740.53</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -490,6 +504,9 @@
         <v>15099.4</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>12831.91</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -503,6 +520,9 @@
       <c r="C6" t="n">
         <v>70357.17999999999</v>
       </c>
+      <c r="D6" t="n">
+        <v>66771.47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -516,6 +536,9 @@
       <c r="C7" t="n">
         <v>47973.37</v>
       </c>
+      <c r="D7" t="n">
+        <v>51258.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -529,6 +552,9 @@
       <c r="C8" t="n">
         <v>66337.83</v>
       </c>
+      <c r="D8" t="n">
+        <v>163051.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -541,6 +567,9 @@
       </c>
       <c r="C9" t="n">
         <v>199013.48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>978306.08</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -464,6 +469,9 @@
       </c>
       <c r="D2" t="n">
         <v>80803.56</v>
+      </c>
+      <c r="E2" t="n">
+        <v>77997.25</v>
       </c>
     </row>
     <row r="3">
@@ -479,6 +487,9 @@
       <c r="D3" t="n">
         <v>573900.4399999999</v>
       </c>
+      <c r="E3" t="n">
+        <v>572717.4300000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -493,6 +504,9 @@
       <c r="D4" t="n">
         <v>192740.53</v>
       </c>
+      <c r="E4" t="n">
+        <v>202690.87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -507,6 +521,9 @@
       <c r="D5" t="n">
         <v>12831.91</v>
       </c>
+      <c r="E5" t="n">
+        <v>23624.93</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -523,6 +540,9 @@
       <c r="D6" t="n">
         <v>66771.47</v>
       </c>
+      <c r="E6" t="n">
+        <v>69910.77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -539,6 +559,9 @@
       <c r="D7" t="n">
         <v>51258.17</v>
       </c>
+      <c r="E7" t="n">
+        <v>47987.01</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -555,6 +578,9 @@
       <c r="D8" t="n">
         <v>163051.01</v>
       </c>
+      <c r="E8" t="n">
+        <v>165821.38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -570,6 +596,9 @@
       </c>
       <c r="D9" t="n">
         <v>978306.08</v>
+      </c>
+      <c r="E9" t="n">
+        <v>994928.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -472,6 +477,9 @@
       </c>
       <c r="E2" t="n">
         <v>77997.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80364.89</v>
       </c>
     </row>
     <row r="3">
@@ -490,6 +498,9 @@
       <c r="E3" t="n">
         <v>572717.4300000001</v>
       </c>
+      <c r="F3" t="n">
+        <v>571808.39</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -507,6 +518,9 @@
       <c r="E4" t="n">
         <v>202690.87</v>
       </c>
+      <c r="F4" t="n">
+        <v>191746.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -524,6 +538,9 @@
       <c r="E5" t="n">
         <v>23624.93</v>
       </c>
+      <c r="F5" t="n">
+        <v>12716.79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -543,6 +560,9 @@
       <c r="E6" t="n">
         <v>69910.77</v>
       </c>
+      <c r="F6" t="n">
+        <v>66870.96000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -562,6 +582,9 @@
       <c r="E7" t="n">
         <v>47987.01</v>
       </c>
+      <c r="F7" t="n">
+        <v>50063.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +604,9 @@
       <c r="E8" t="n">
         <v>165821.38</v>
       </c>
+      <c r="F8" t="n">
+        <v>162261.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +625,9 @@
       </c>
       <c r="E9" t="n">
         <v>994928.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>973571.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -480,6 +485,9 @@
       </c>
       <c r="F2" t="n">
         <v>80364.89</v>
+      </c>
+      <c r="G2" t="n">
+        <v>79320.82000000001</v>
       </c>
     </row>
     <row r="3">
@@ -501,6 +509,9 @@
       <c r="F3" t="n">
         <v>571808.39</v>
       </c>
+      <c r="G3" t="n">
+        <v>570474.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -521,6 +532,9 @@
       <c r="F4" t="n">
         <v>191746.9</v>
       </c>
+      <c r="G4" t="n">
+        <v>198792.35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -541,6 +555,9 @@
       <c r="F5" t="n">
         <v>12716.79</v>
       </c>
+      <c r="G5" t="n">
+        <v>12822.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -563,6 +580,9 @@
       <c r="F6" t="n">
         <v>66870.96000000001</v>
       </c>
+      <c r="G6" t="n">
+        <v>70648.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,6 +605,9 @@
       <c r="F7" t="n">
         <v>50063.34</v>
       </c>
+      <c r="G7" t="n">
+        <v>51105.98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +630,9 @@
       <c r="F8" t="n">
         <v>162261.88</v>
       </c>
+      <c r="G8" t="n">
+        <v>163860.77</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +654,9 @@
       </c>
       <c r="F9" t="n">
         <v>973571.27</v>
+      </c>
+      <c r="G9" t="n">
+        <v>983164.6</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>79320.82000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>82298</v>
       </c>
     </row>
     <row r="3">
@@ -512,6 +520,9 @@
       <c r="G3" t="n">
         <v>570474.02</v>
       </c>
+      <c r="H3" t="n">
+        <v>572345.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -535,6 +546,9 @@
       <c r="G4" t="n">
         <v>198792.35</v>
       </c>
+      <c r="H4" t="n">
+        <v>199985.47</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -558,6 +572,9 @@
       <c r="G5" t="n">
         <v>12822.6</v>
       </c>
+      <c r="H5" t="n">
+        <v>12910.32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,6 +600,9 @@
       <c r="G6" t="n">
         <v>70648.83</v>
       </c>
+      <c r="H6" t="n">
+        <v>71740.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="G7" t="n">
         <v>51105.98</v>
       </c>
+      <c r="H7" t="n">
+        <v>51515.85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +656,9 @@
       <c r="G8" t="n">
         <v>163860.77</v>
       </c>
+      <c r="H8" t="n">
+        <v>165132.73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +683,9 @@
       </c>
       <c r="G9" t="n">
         <v>983164.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>990796.35</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +501,9 @@
       </c>
       <c r="H2" t="n">
         <v>82298</v>
+      </c>
+      <c r="I2" t="n">
+        <v>82356.58</v>
       </c>
     </row>
     <row r="3">
@@ -523,6 +531,9 @@
       <c r="H3" t="n">
         <v>572345.84</v>
       </c>
+      <c r="I3" t="n">
+        <v>575056.1899999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -549,6 +560,9 @@
       <c r="H4" t="n">
         <v>199985.47</v>
       </c>
+      <c r="I4" t="n">
+        <v>200942.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -575,6 +589,9 @@
       <c r="H5" t="n">
         <v>12910.32</v>
       </c>
+      <c r="I5" t="n">
+        <v>13218.79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -603,6 +620,9 @@
       <c r="H6" t="n">
         <v>71740.87</v>
       </c>
+      <c r="I6" t="n">
+        <v>71600.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,6 +651,9 @@
       <c r="H7" t="n">
         <v>51515.85</v>
       </c>
+      <c r="I7" t="n">
+        <v>52462.58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +682,9 @@
       <c r="H8" t="n">
         <v>165132.73</v>
       </c>
+      <c r="I8" t="n">
+        <v>165939.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +712,9 @@
       </c>
       <c r="H9" t="n">
         <v>990796.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>995637.2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -504,6 +509,9 @@
       </c>
       <c r="I2" t="n">
         <v>82356.58</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82362.10000000001</v>
       </c>
     </row>
     <row r="3">
@@ -534,6 +542,9 @@
       <c r="I3" t="n">
         <v>575056.1899999999</v>
       </c>
+      <c r="J3" t="n">
+        <v>569294.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -563,6 +574,9 @@
       <c r="I4" t="n">
         <v>200942.11</v>
       </c>
+      <c r="J4" t="n">
+        <v>192209.91</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -592,6 +606,9 @@
       <c r="I5" t="n">
         <v>13218.79</v>
       </c>
+      <c r="J5" t="n">
+        <v>13804.64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -623,6 +640,9 @@
       <c r="I6" t="n">
         <v>71600.95</v>
       </c>
+      <c r="J6" t="n">
+        <v>72774.10000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="I7" t="n">
         <v>52462.58</v>
       </c>
+      <c r="J7" t="n">
+        <v>47051.82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +708,9 @@
       <c r="I8" t="n">
         <v>165939.53</v>
       </c>
+      <c r="J8" t="n">
+        <v>162916.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +741,9 @@
       </c>
       <c r="I9" t="n">
         <v>995637.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>977496.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -512,6 +517,9 @@
       </c>
       <c r="J2" t="n">
         <v>82362.10000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>79446.47</v>
       </c>
     </row>
     <row r="3">
@@ -545,6 +553,9 @@
       <c r="J3" t="n">
         <v>569294.15</v>
       </c>
+      <c r="K3" t="n">
+        <v>568791.6899999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -577,6 +588,9 @@
       <c r="J4" t="n">
         <v>192209.91</v>
       </c>
+      <c r="K4" t="n">
+        <v>197329.49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -609,6 +623,9 @@
       <c r="J5" t="n">
         <v>13804.64</v>
       </c>
+      <c r="K5" t="n">
+        <v>14725.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -643,6 +660,9 @@
       <c r="J6" t="n">
         <v>72774.10000000001</v>
       </c>
+      <c r="K6" t="n">
+        <v>67083.34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +697,9 @@
       <c r="J7" t="n">
         <v>47051.82</v>
       </c>
+      <c r="K7" t="n">
+        <v>46861.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +734,9 @@
       <c r="J8" t="n">
         <v>162916.12</v>
       </c>
+      <c r="K8" t="n">
+        <v>162372.98</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +770,9 @@
       </c>
       <c r="J9" t="n">
         <v>977496.72</v>
+      </c>
+      <c r="K9" t="n">
+        <v>974237.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>79446.47</v>
       </c>
+      <c r="L2" t="n">
+        <v>79872.81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -556,6 +564,9 @@
       <c r="K3" t="n">
         <v>568791.6899999999</v>
       </c>
+      <c r="L3" t="n">
+        <v>570694.97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,6 +602,9 @@
       <c r="K4" t="n">
         <v>197329.49</v>
       </c>
+      <c r="L4" t="n">
+        <v>202837.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -626,6 +640,9 @@
       <c r="K5" t="n">
         <v>14725.37</v>
       </c>
+      <c r="L5" t="n">
+        <v>14008.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -663,6 +680,9 @@
       <c r="K6" t="n">
         <v>67083.34</v>
       </c>
+      <c r="L6" t="n">
+        <v>70121.73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -700,6 +720,9 @@
       <c r="K7" t="n">
         <v>46861.5</v>
       </c>
+      <c r="L7" t="n">
+        <v>51130.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +760,9 @@
       <c r="K8" t="n">
         <v>162372.98</v>
       </c>
+      <c r="L8" t="n">
+        <v>164777.62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +799,9 @@
       </c>
       <c r="K9" t="n">
         <v>974237.86</v>
+      </c>
+      <c r="L9" t="n">
+        <v>988665.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/INVJ.xlsx
+++ b/backend/src/excel_handler/files/INVJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>79872.81</v>
       </c>
+      <c r="M2" t="n">
+        <v>79558.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -567,6 +575,9 @@
       <c r="L3" t="n">
         <v>570694.97</v>
       </c>
+      <c r="M3" t="n">
+        <v>569180.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -605,6 +616,9 @@
       <c r="L4" t="n">
         <v>202837.89</v>
       </c>
+      <c r="M4" t="n">
+        <v>201610.68</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -643,6 +657,9 @@
       <c r="L5" t="n">
         <v>14008.24</v>
       </c>
+      <c r="M5" t="n">
+        <v>13880.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -683,6 +700,9 @@
       <c r="L6" t="n">
         <v>70121.73</v>
       </c>
+      <c r="M6" t="n">
+        <v>69495.78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +743,9 @@
       <c r="L7" t="n">
         <v>51130.06</v>
       </c>
+      <c r="M7" t="n">
+        <v>51482.66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +786,9 @@
       <c r="L8" t="n">
         <v>164777.62</v>
       </c>
+      <c r="M8" t="n">
+        <v>164201.52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -802,6 +828,9 @@
       </c>
       <c r="L9" t="n">
         <v>988665.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>985209.15</v>
       </c>
     </row>
   </sheetData>
